--- a/ContactsManager/Documents/ContactsManagerComponentRequirements.xlsx
+++ b/ContactsManager/Documents/ContactsManagerComponentRequirements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="14355" windowHeight="4620" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="14355" windowHeight="4620" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="119">
   <si>
     <t>Deliverables</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>Remarks</t>
-  </si>
-  <si>
-    <t>Use Cases</t>
   </si>
   <si>
     <t>Source code in github</t>
@@ -184,87 +181,6 @@
     <t>Color Code</t>
   </si>
   <si>
-    <t>User Checks for SMS connection</t>
-  </si>
-  <si>
-    <t>Returns boolean depending on available network connectivity.</t>
-  </si>
-  <si>
-    <t>User Checks for MMS Service Availability.</t>
-  </si>
-  <si>
-    <t>User Sends SMS</t>
-  </si>
-  <si>
-    <t>Checks for internet connection, returns error if results are negative. If results are positive, sends SMS and displays a toast confirming delivery.</t>
-  </si>
-  <si>
-    <t>User Sends MMS</t>
-  </si>
-  <si>
-    <t>Opens up the native Android messaging application with the image,text body and recipient phone number already set up as provided by user.</t>
-  </si>
-  <si>
-    <t>User gets list of contacts</t>
-  </si>
-  <si>
-    <t>Returns JSON with all the contacts available on the phone.</t>
-  </si>
-  <si>
-    <t>User deletes conversation</t>
-  </si>
-  <si>
-    <t>Returns exception if the phone number that user provided does not have any conversation associated with it. Else deletes conversation successfully and returns the number of text messages present in the deleted conversation.</t>
-  </si>
-  <si>
-    <t>User tries to get a contact image Uri</t>
-  </si>
-  <si>
-    <t>Returns exception if the phone number that user provided does not have any contact image associated with it. Else fetches the contact image successfully and returns the corresponding image Uri.</t>
-  </si>
-  <si>
-    <t>User gets a list of all the conversations on the phone</t>
-  </si>
-  <si>
-    <t>Returns JSON with all the conversation headers available on the phone.</t>
-  </si>
-  <si>
-    <t>User gets the texts if a conversation in the phone.</t>
-  </si>
-  <si>
-    <t>User deletes SMS/MMS</t>
-  </si>
-  <si>
-    <t>Returns exception if the conversation id that user provided does not have any conversation associated with it. Else fetches all the texts associated with conversation and returns them in a JSON Array</t>
-  </si>
-  <si>
-    <t>User deletes all the SMS/MMS associated with a phone number.</t>
-  </si>
-  <si>
-    <t>Returns exception if the SMS id that user specified does not have any text associated with it. Else deletes the corresponding SMS/MMS returning a boolean value depicting the process success.</t>
-  </si>
-  <si>
-    <t>Returns exception if the phone number that user provided does not have any conversation associated with it.  Else deletes the corresponding SMS/MMS  conversation returning a boolean value depicting the process success.</t>
-  </si>
-  <si>
-    <t>User gets SMS Log details</t>
-  </si>
-  <si>
-    <t>Returns a JSON Array with SMS logs &lt;phone number,body,date&gt;</t>
-  </si>
-  <si>
-    <t>Get Unread SMS/MMS count</t>
-  </si>
-  <si>
-    <t>Returns a number which represents number of unread SMS/MMS</t>
-  </si>
-  <si>
-    <t>User starts an SMS/MMS broadcast</t>
-  </si>
-  <si>
-    <t>Returns exception if the service initiation failed. Else starts up the service and listens for incoming sms/mms.</t>
-  </si>
-  <si>
     <t>com.optimus.atul.librarysms.test.LibSMSUtilsUT.libSMS</t>
   </si>
   <si>
@@ -404,6 +320,75 @@
   </si>
   <si>
     <t>void</t>
+  </si>
+  <si>
+    <t>sendSMS(Context, String, String, PendingIntent, PendingIntent)</t>
+  </si>
+  <si>
+    <t>deleteConversation(Context, int)</t>
+  </si>
+  <si>
+    <t>deleteSMS(Context, int)</t>
+  </si>
+  <si>
+    <t>Check SMS service availability. (Not compatible with Samsung Devices)</t>
+  </si>
+  <si>
+    <t>Send SMS</t>
+  </si>
+  <si>
+    <t>Delete SMS conversation thread</t>
+  </si>
+  <si>
+    <t>Delete all SMS which are from given phone number</t>
+  </si>
+  <si>
+    <t>Get list of SMS conversation threads</t>
+  </si>
+  <si>
+    <t>Get texts associated with a text ID</t>
+  </si>
+  <si>
+    <t>Get texts associated with a phone number</t>
+  </si>
+  <si>
+    <t>Delete texts associated with a text ID</t>
+  </si>
+  <si>
+    <t>Get Unread SMS count</t>
+  </si>
+  <si>
+    <t>Get all contact details</t>
+  </si>
+  <si>
+    <t>Get contact image URI (if available) for a particular contact ID</t>
+  </si>
+  <si>
+    <t>Get contact email address for a particular contact ID</t>
+  </si>
+  <si>
+    <t>Get SMS log starting from a given time-stamp which could also be null in case all the SMS are to be fetched.</t>
+  </si>
+  <si>
+    <t>Get Call Log details</t>
+  </si>
+  <si>
+    <t>Commented sample code.</t>
+  </si>
+  <si>
+    <t>Method TBD</t>
+  </si>
+  <si>
+    <t>Use Case</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Boolean indicating the success/failure</t>
+  </si>
+  <si>
+    <t>JSONArray with all the required details.</t>
   </si>
 </sst>
 </file>
@@ -483,12 +468,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -514,6 +493,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -600,29 +586,35 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,10 +623,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,20 +635,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -704,15 +690,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -754,9 +731,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -766,10 +740,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -794,11 +764,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -1133,37 +1109,37 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
     </row>
     <row r="5" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1208,14 +1184,14 @@
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>39</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>40</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>8</v>
@@ -1229,25 +1205,25 @@
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="38">
+      <c r="C3" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="34">
         <v>40</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="32" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="33" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="11"/>
@@ -1260,7 +1236,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="8">
         <v>40</v>
@@ -1271,7 +1247,7 @@
       <c r="F4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="33" t="s">
         <v>16</v>
       </c>
       <c r="H4" s="11"/>
@@ -1280,13 +1256,13 @@
       <c r="A5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="28">
+      <c r="C5" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="25">
         <v>40</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -1295,34 +1271,34 @@
       <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="33" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="28">
+      <c r="C6" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="25">
         <v>40</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="22"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
@@ -1332,7 +1308,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="8">
         <v>40</v>
@@ -1343,7 +1319,7 @@
       <c r="F7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="33" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="11"/>
@@ -1371,190 +1347,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="43" t="s">
-        <v>49</v>
+      <c r="D1" s="37" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="44">
+      <c r="A2" s="38">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="45"/>
+      <c r="B2" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="39"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="44">
+      <c r="A3" s="38">
         <v>2</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="45"/>
+      <c r="B3" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="39"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="44">
+      <c r="A4" s="38">
         <v>3</v>
       </c>
-      <c r="B4" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="45"/>
+      <c r="B4" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="39"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="44">
+      <c r="A5" s="38">
         <v>4</v>
       </c>
-      <c r="B5" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="45"/>
+      <c r="B5" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="39"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="44">
+      <c r="A6" s="38">
         <v>5</v>
       </c>
-      <c r="B6" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="45"/>
+      <c r="B6" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="39"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="44">
+      <c r="A7" s="38">
         <v>6</v>
       </c>
-      <c r="B7" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="45"/>
+      <c r="B7" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="39"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="44">
+      <c r="A8" s="38">
         <v>7</v>
       </c>
-      <c r="B8" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="45"/>
+      <c r="B8" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="39"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="44">
+      <c r="A9" s="38">
         <v>8</v>
       </c>
-      <c r="B9" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="45"/>
+      <c r="B9" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="39"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="44">
+      <c r="A10" s="38">
         <v>9</v>
       </c>
-      <c r="B10" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="45"/>
+      <c r="B10" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="39"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="44">
+      <c r="A11" s="38">
         <v>10</v>
       </c>
-      <c r="B11" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="45"/>
+      <c r="B11" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="39"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="44">
+      <c r="A12" s="38">
         <v>11</v>
       </c>
-      <c r="B12" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="45"/>
+      <c r="B12" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="39"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="44">
+      <c r="A13" s="38">
         <v>12</v>
       </c>
-      <c r="B13" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="45"/>
+      <c r="B13" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="39"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="44">
+      <c r="A14" s="38">
         <v>13</v>
       </c>
-      <c r="B14" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="45"/>
+      <c r="B14" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="39"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="44">
+      <c r="A15" s="38">
         <v>14</v>
       </c>
-      <c r="B15" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="45"/>
+      <c r="B15" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="39"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1564,241 +1540,237 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="95.5703125" customWidth="1"/>
-    <col min="3" max="3" width="56.85546875" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="3" max="3" width="68.140625" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:4" ht="15.75">
+      <c r="B1" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="47">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="17">
+      <c r="B2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30">
+      <c r="A3" s="47">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45">
-      <c r="A4" s="35">
+      <c r="B3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="47">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="45">
-      <c r="A5" s="35">
+      <c r="B4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="47">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="35">
+      <c r="B5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="47">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="47">
         <v>6</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="60">
-      <c r="A7" s="35">
+      <c r="B7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="47">
         <v>7</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="60">
-      <c r="A8" s="35">
+      <c r="B8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="47">
         <v>8</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30">
-      <c r="A9" s="35">
+      <c r="B9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="47">
         <v>9</v>
       </c>
-      <c r="B9" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="60">
-      <c r="A10" s="35">
+      <c r="B10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="47">
         <v>10</v>
       </c>
-      <c r="B10" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="60">
-      <c r="A11" s="35">
+      <c r="B11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="47">
         <v>11</v>
       </c>
-      <c r="B11" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="60">
-      <c r="A12" s="35">
+      <c r="B12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="47">
         <v>12</v>
       </c>
-      <c r="B12" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="35">
+      <c r="B13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30">
+      <c r="A14" s="47">
         <v>13</v>
       </c>
-      <c r="B13" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="35">
+      <c r="B14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="47">
         <v>14</v>
       </c>
-      <c r="B14" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30">
-      <c r="A15" s="35">
+      <c r="B15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="47">
         <v>15</v>
       </c>
-      <c r="B15" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="35">
-        <v>16</v>
-      </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="39"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="35">
-        <v>17</v>
-      </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="39"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="35">
-        <v>18</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="39"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="35">
-        <v>19</v>
-      </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="39"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="35">
-        <v>20</v>
-      </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="39"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="35">
-        <v>21</v>
-      </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="39"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="35">
-        <v>22</v>
-      </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="39"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="35">
-        <v>23</v>
-      </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="39"/>
+      <c r="B16" s="4" t="s">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1821,44 +1793,44 @@
         <v>1</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="35">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="41">
-        <v>1</v>
-      </c>
-      <c r="B2" s="41" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="29">
-        <v>2</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="41">
+      <c r="A4" s="35">
         <v>3</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="35">
+        <v>4</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="41">
-        <v>4</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>46</v>
-      </c>
-    </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1880,25 +1852,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="51" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="52"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:5" ht="15.75">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1906,126 +1878,126 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="24">
+      <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="24">
+      <c r="C3" s="23"/>
+      <c r="D3" s="21">
         <v>1</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="24">
+      <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="24">
+      <c r="C4" s="23"/>
+      <c r="D4" s="21">
         <v>2</v>
       </c>
       <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="24">
+      <c r="A5" s="21">
         <v>3</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="24">
+      <c r="C5" s="23"/>
+      <c r="D5" s="21">
         <v>3</v>
       </c>
       <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="24">
+      <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="24">
+      <c r="B6" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="21">
         <v>4</v>
       </c>
       <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="24">
+      <c r="A7" s="21">
         <v>5</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="24">
+      <c r="B7" s="24"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="21">
         <v>5</v>
       </c>
       <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="24">
+      <c r="A8" s="21">
         <v>6</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="24">
+      <c r="B8" s="24"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="21">
         <v>6</v>
       </c>
       <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="24">
+      <c r="A9" s="21">
         <v>7</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="24">
+      <c r="B9" s="24"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="21">
         <v>7</v>
       </c>
       <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="24">
+      <c r="A10" s="21">
         <v>8</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="24">
+      <c r="B10" s="24"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="21">
         <v>8</v>
       </c>
       <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="24"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="24">
+      <c r="A11" s="21"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="21">
         <v>9</v>
       </c>
       <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="24"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="24">
+      <c r="A12" s="21"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="21">
         <v>10</v>
       </c>
       <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="24"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="24">
+      <c r="A13" s="21"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="21">
         <v>11</v>
       </c>
       <c r="E13" s="15"/>
@@ -2055,112 +2027,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="27" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="60">
-      <c r="A2" s="32">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="D2" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="31" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="30">
+      <c r="A3" s="29">
+        <v>2</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="30">
-      <c r="A3" s="32">
-        <v>2</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="31" t="s">
+      <c r="D3" s="28"/>
+    </row>
+    <row r="4" spans="1:4" ht="30">
+      <c r="A4" s="29">
+        <v>3</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="31"/>
-    </row>
-    <row r="4" spans="1:4" ht="30">
-      <c r="A4" s="32">
-        <v>3</v>
-      </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="31" t="s">
+      <c r="D4" s="28"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="29">
+        <v>4</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="31"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="32">
-        <v>4</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="32">
+      <c r="A6" s="29">
         <v>5</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="32">
+      <c r="A7" s="29">
         <v>6</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="32">
+      <c r="A8" s="29">
         <v>7</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="32">
+      <c r="A9" s="29">
         <v>8</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="32">
+      <c r="A10" s="29">
         <v>9</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="32">
+      <c r="A11" s="29">
         <v>10</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2171,7 +2143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -2179,175 +2151,175 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" s="47"/>
+        <v>51</v>
+      </c>
+      <c r="L3" s="41"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>80</v>
-      </c>
-      <c r="L4" s="47"/>
+        <v>52</v>
+      </c>
+      <c r="L4" s="41"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>81</v>
-      </c>
-      <c r="L5" s="47"/>
+        <v>53</v>
+      </c>
+      <c r="L5" s="41"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" s="47"/>
+        <v>54</v>
+      </c>
+      <c r="L6" s="41"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" s="47"/>
+        <v>55</v>
+      </c>
+      <c r="L7" s="41"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>84</v>
-      </c>
-      <c r="L8" s="47"/>
+        <v>56</v>
+      </c>
+      <c r="L8" s="41"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>85</v>
-      </c>
-      <c r="L9" s="47"/>
+        <v>57</v>
+      </c>
+      <c r="L9" s="41"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>86</v>
-      </c>
-      <c r="L10" s="47"/>
+        <v>58</v>
+      </c>
+      <c r="L10" s="41"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" s="47"/>
+        <v>59</v>
+      </c>
+      <c r="L11" s="41"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>88</v>
-      </c>
-      <c r="L12" s="47"/>
+        <v>60</v>
+      </c>
+      <c r="L12" s="41"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>89</v>
-      </c>
-      <c r="L13" s="47"/>
+        <v>61</v>
+      </c>
+      <c r="L13" s="41"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>90</v>
-      </c>
-      <c r="L14" s="47"/>
+        <v>62</v>
+      </c>
+      <c r="L14" s="41"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>91</v>
-      </c>
-      <c r="L15" s="47"/>
+        <v>63</v>
+      </c>
+      <c r="L15" s="41"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="47"/>
+        <v>64</v>
+      </c>
+      <c r="L16" s="41"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>93</v>
-      </c>
-      <c r="L17" s="47"/>
+        <v>65</v>
+      </c>
+      <c r="L17" s="41"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>94</v>
-      </c>
-      <c r="L18" s="47"/>
+        <v>66</v>
+      </c>
+      <c r="L18" s="41"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>95</v>
-      </c>
-      <c r="L19" s="47"/>
+        <v>67</v>
+      </c>
+      <c r="L19" s="41"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>96</v>
-      </c>
-      <c r="L20" s="47"/>
+        <v>68</v>
+      </c>
+      <c r="L20" s="41"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>97</v>
-      </c>
-      <c r="L21" s="47"/>
+        <v>69</v>
+      </c>
+      <c r="L21" s="41"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>98</v>
-      </c>
-      <c r="L22" s="47"/>
+        <v>70</v>
+      </c>
+      <c r="L22" s="41"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>99</v>
-      </c>
-      <c r="L23" s="47"/>
+        <v>71</v>
+      </c>
+      <c r="L23" s="41"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>100</v>
-      </c>
-      <c r="L24" s="47"/>
+        <v>72</v>
+      </c>
+      <c r="L24" s="41"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>101</v>
-      </c>
-      <c r="L25" s="47"/>
+        <v>73</v>
+      </c>
+      <c r="L25" s="41"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>102</v>
-      </c>
-      <c r="L26" s="47"/>
+        <v>74</v>
+      </c>
+      <c r="L26" s="41"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>103</v>
-      </c>
-      <c r="L27" s="47"/>
+        <v>75</v>
+      </c>
+      <c r="L27" s="41"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>104</v>
-      </c>
-      <c r="L28" s="47"/>
+        <v>76</v>
+      </c>
+      <c r="L28" s="41"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>105</v>
-      </c>
-      <c r="L29" s="47"/>
+        <v>77</v>
+      </c>
+      <c r="L29" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ContactsManager/Documents/ContactsManagerComponentRequirements.xlsx
+++ b/ContactsManager/Documents/ContactsManagerComponentRequirements.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="127">
   <si>
     <t>Deliverables</t>
   </si>
@@ -389,6 +389,30 @@
   </si>
   <si>
     <t>JSONArray with all the required details.</t>
+  </si>
+  <si>
+    <t>addCallLog(Context, String, String, String, String, String)</t>
+  </si>
+  <si>
+    <t>addSMSLog(Context, String, String, String, String)</t>
+  </si>
+  <si>
+    <t>addContact(Context, String, String, String, String, String)</t>
+  </si>
+  <si>
+    <t>SPRINT 2</t>
+  </si>
+  <si>
+    <t>Add call log to system database</t>
+  </si>
+  <si>
+    <t>Add SMS to system database</t>
+  </si>
+  <si>
+    <t>Add contact to system database</t>
+  </si>
+  <si>
+    <t>Uri of the newly created database row</t>
   </si>
 </sst>
 </file>
@@ -502,7 +526,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,6 +542,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,7 +678,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -757,6 +793,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -770,10 +809,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1109,37 +1150,37 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="4" spans="1:7">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1540,10 +1581,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1554,18 +1595,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
-      <c r="B1" s="48" t="s">
+      <c r="A1" s="50"/>
+      <c r="B1" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="51" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="47">
+      <c r="A2" s="42">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1579,7 +1621,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="30">
-      <c r="A3" s="47">
+      <c r="A3" s="42">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1593,7 +1635,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="47">
+      <c r="A4" s="42">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1607,7 +1649,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="47">
+      <c r="A5" s="42">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1621,7 +1663,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="47">
+      <c r="A6" s="42">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1635,7 +1677,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="47">
+      <c r="A7" s="42">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1649,7 +1691,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="47">
+      <c r="A8" s="42">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1663,7 +1705,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="47">
+      <c r="A9" s="42">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1677,7 +1719,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="47">
+      <c r="A10" s="42">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1691,7 +1733,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="47">
+      <c r="A11" s="42">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1705,7 +1747,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="47">
+      <c r="A12" s="42">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1719,7 +1761,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="47">
+      <c r="A13" s="42">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1733,7 +1775,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="30">
-      <c r="A14" s="47">
+      <c r="A14" s="42">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1747,7 +1789,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="47">
+      <c r="A15" s="42">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1761,11 +1803,61 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="47">
+      <c r="A16" s="42">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="48"/>
+      <c r="B17" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+    </row>
+    <row r="18" spans="1:4" ht="30">
+      <c r="A18" s="42">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30">
+      <c r="A19" s="42">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30">
+      <c r="A20" s="42">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1852,15 +1944,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="47"/>
       <c r="C1" s="20"/>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="46"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="16" t="s">
